--- a/annual_data/2015.xlsx
+++ b/annual_data/2015.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '北京市', 'job_name': '北京市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '北京市', 'type': '政府/国务院', 'rank': 9, 'job_name': '北京市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 9, 'job_name': '天津市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '天津市', 'job_name': '天津市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '天津市', 'type': '党委', 'rank': 8, 'job_name': '天津市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-12-01 00:00:00'), 'location': '重庆市', 'type': '党委', 'rank': 8, 'job_name': '重庆市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市重庆市委党校校长'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '重庆市', 'type': '学校', 'rank': 8, 'job_name': '重庆市重庆市委党校校长'}</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 9, 'job_name': '河南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '广东省', 'job_name': '广东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '广东省', 'type': '党委', 'rank': 10, 'job_name': '广东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 9, 'job_name': '西藏自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '河北省', 'job_name': '河北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '河北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '河北省', 'job_name': '河北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '河北省', 'type': '党委', 'rank': 9, 'job_name': '河北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '中央', 'job_name': '中央南水北调工程建设委员会委员'}</t>
+          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央南水北调工程建设委员会委员'}</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-05-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2008-05-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '广东省深圳市', 'type': '党委', 'rank': 7, 'job_name': '广东省深圳市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-06-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '广东省深圳市', 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2010-06-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '广东省深圳市', 'type': '政府/国务院', 'rank': 8, 'job_name': '广东省深圳市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '内蒙古自治区', 'type': '党委', 'rank': 9, 'job_name': '内蒙古自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '内蒙古自治区', 'type': '人大', 'rank': 9, 'job_name': '内蒙古自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-01-08 00:00:00'), 'location': '山西省', 'job_name': '山西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-01-08 00:00:00'), 'location': '山西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2019-11-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 8, 'job_name': '山西省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '山西省', 'job_name': '山西省山西省委党校校长'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '山西省', 'type': '学校', 'rank': 8, 'job_name': '山西省山西省委党校校长'}</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-01-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '内蒙古自治区', 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2009-01-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '内蒙古自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '内蒙古自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-04-01 00:00:00'), 'end_time': Timestamp('2017-06-01 00:00:00'), 'location': '中央', 'job_name': '中央住房和城乡建设(建设)部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2014-04-01 00:00:00'), 'end_time': Timestamp('2017-06-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央住房和城乡建设(建设)部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-11-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '中央', 'job_name': '中央农业部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2009-11-01 00:00:00'), 'end_time': Timestamp('2020-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央农业部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '山西省', 'job_name': '山西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '山西省', 'type': '党委', 'rank': 9, 'job_name': '山西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 9, 'job_name': '吉林省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '吉林省', 'type': '党委', 'rank': 8, 'job_name': '吉林省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '吉林省', 'job_name': '吉林省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '吉林省', 'type': '政府/国务院', 'rank': 9, 'job_name': '吉林省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 8, 'job_name': '中央总工会党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 8, 'job_name': '中央总工会书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会副主席'}</t>
+          <t>{'begin_time': Timestamp('2013-10-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 8, 'job_name': '中央总工会副主席'}</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-09-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央办公厅/室主任'}</t>
+          <t>{'begin_time': Timestamp('2012-09-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央办公厅/室主任'}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央直属机关工作委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2012-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央直属机关工作委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 9, 'job_name': '黑龙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '黑龙江省', 'type': '人大', 'rank': 9, 'job_name': '黑龙江省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '黑龙江省', 'type': '政府/国务院', 'rank': 9, 'job_name': '黑龙江省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 9, 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-02-01 00:00:00'), 'location': '上海市', 'type': '政府/国务院', 'rank': 9, 'job_name': '上海市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2020-02-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 8, 'job_name': '上海市党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '上海市', 'job_name': '上海市中国浦东干部学院副院长'}</t>
+          <t>{'begin_time': Timestamp('2014-06-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '上海市', 'type': '学校', 'rank': 8, 'job_name': '上海市中国浦东干部学院副院长'}</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 9, 'job_name': '江苏省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '江苏省', 'job_name': '江苏省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '江苏省', 'type': '党委', 'rank': 8, 'job_name': '江苏省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '山西省太原市', 'job_name': '山西省太原市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '山西省太原市', 'type': '党委', 'rank': 0, 'job_name': '山西省太原市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '浙江省', 'type': '党委', 'rank': 9, 'job_name': '浙江省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-06-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '新疆维吾尔自治区', 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2010-06-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '新疆维吾尔自治区', 'type': '党委', 'rank': 9, 'job_name': '新疆维吾尔自治区党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '浙江省', 'job_name': '浙江省政府/国务院（综合）常务副省长'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '浙江省', 'type': '政府/国务院', 'rank': 0, 'job_name': '浙江省政府/国务院（综合）常务副省长'}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-12-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2011-12-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '甘肃省', 'type': '党委', 'rank': 9, 'job_name': '甘肃省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央计划生育委员会主任'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央计划生育委员会主任'}</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '安徽省', 'job_name': '安徽省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '安徽省', 'type': '党委', 'rank': 8, 'job_name': '安徽省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-04-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
+          <t>{'begin_time': Timestamp('2011-04-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央环境与资源保护委员会副主任委员'}</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 8, 'job_name': '福建省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-06-01 00:00:00'), 'end_time': Timestamp('2016-07-01 00:00:00'), 'location': '江西省', 'job_name': '江西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2011-06-01 00:00:00'), 'end_time': Timestamp('2016-07-01 00:00:00'), 'location': '江西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '江西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-02-01 00:00:00'), 'location': '浙江省宁波市', 'type': '党委', 'rank': 0, 'job_name': '浙江省宁波市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-05-01 00:00:00'), 'end_time': Timestamp('2017-07-01 00:00:00'), 'location': '湖南省长沙市', 'job_name': '湖南省长沙市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-05-01 00:00:00'), 'end_time': Timestamp('2017-07-01 00:00:00'), 'location': '湖南省长沙市', 'type': '党委', 'rank': 0, 'job_name': '湖南省长沙市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国土资源部/厅/局部长'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国土资源部/厅/局部长'}</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-02-01 00:00:00'), 'location': '山东省', 'job_name': '山东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-02-01 00:00:00'), 'location': '山东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '山东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '河南省', 'job_name': '河南省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '河南省', 'type': '党委', 'rank': 9, 'job_name': '河南省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-04-01 00:00:00'), 'location': '河南省', 'job_name': '河南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-04-01 00:00:00'), 'location': '河南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '河南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '黑龙江省', 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '黑龙江省', 'type': '党委', 'rank': 0, 'job_name': '黑龙江省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '上海市', 'job_name': '上海市党委常委会/政治局秘书长'}</t>
+          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '上海市', 'type': '党委', 'rank': 0, 'job_name': '上海市党委常委会/政治局秘书长'}</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 9, 'job_name': '湖北省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖北省', 'type': '人大', 'rank': 9, 'job_name': '湖北省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖北省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省党委常委会/政治局副书记'}</t>
+          <t>{'begin_time': Timestamp('2010-12-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '湖北省', 'type': '党委', 'rank': 9, 'job_name': '湖北省党委常委会/政治局副书记'}</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '湖南省', 'type': '党委', 'rank': 9, 'job_name': '湖南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖南省', 'job_name': '湖南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '湖南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '湖南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局党组副书记、副部长'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局党组副书记、副部长'}</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'job_name': '中央工业和信息化（信息产业）部/厅/局直属机关党委书记'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央工业和信息化（信息产业）部/厅/局直属机关党委书记'}</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国家航天局局长'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家航天局局长'}</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'job_name': '中央国家原子能机构主任'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央国家原子能机构主任'}</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'job_name': '中央科学技术委员会局长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 8, 'job_name': '中央科学技术委员会局长、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-11-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '广东省', 'job_name': '广东省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2011-11-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '广东省', 'type': '政府/国务院', 'rank': 9, 'job_name': '广东省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2020-11-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '广西壮族自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '海南省', 'job_name': '海南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2011-08-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '海南省', 'type': '党委', 'rank': 9, 'job_name': '海南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '海南省', 'job_name': '海南省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '海南省', 'type': '政府/国务院', 'rank': 9, 'job_name': '海南省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-05-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '上海市浦东新区', 'job_name': '上海市浦东新区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-05-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '上海市浦东新区', 'type': '党委', 'rank': 0, 'job_name': '上海市浦东新区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-12-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '重庆市', 'job_name': '重庆市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2009-12-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '重庆市', 'type': '政府/国务院', 'rank': 9, 'job_name': '重庆市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-03-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '中央', 'job_name': '中央三峡工程建设委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2010-03-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央三峡工程建设委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '四川省成都市', 'job_name': '四川省成都市政府/国务院（综合）市长'}</t>
+          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '四川省成都市', 'type': '政府/国务院', 'rank': 8, 'job_name': '四川省成都市政府/国务院（综合）市长'}</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2016-01-01 00:00:00'), 'location': '四川省', 'job_name': '四川省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2016-01-01 00:00:00'), 'location': '四川省', 'type': '政府/国务院', 'rank': 9, 'job_name': '四川省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-11-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大内务司法委员会副主任委员（严重违纪）'}</t>
+          <t>{'begin_time': Timestamp('2014-11-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 9, 'job_name': '中央人大内务司法委员会副主任委员（严重违纪）'}</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-10-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '云南省', 'job_name': '云南省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2014-10-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '云南省', 'type': '党委', 'rank': 9, 'job_name': '云南省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-01-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2011-01-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '湖北省武汉市', 'type': '党委', 'rank': 0, 'job_name': '湖北省武汉市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '湖北省武汉市', 'job_name': '湖北省武汉市人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '湖北省武汉市', 'type': '人大', 'rank': 8, 'job_name': '湖北省武汉市人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '西藏自治区', 'type': '人大', 'rank': 9, 'job_name': '西藏自治区人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '西藏自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '西藏自治区政府/国务院（综合）主席'}</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-11-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2011-11-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '西藏自治区拉萨市', 'type': '党委', 'rank': 0, 'job_name': '西藏自治区拉萨市党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央农村工作领导小组副组长'}</t>
+          <t>{'begin_time': Timestamp('2014-09-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 9, 'job_name': '中央农村工作领导小组副组长'}</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '陕西省', 'type': '党委', 'rank': 9, 'job_name': '陕西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '陕西省', 'job_name': '陕西省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '陕西省', 'type': '政府/国务院', 'rank': 9, 'job_name': '陕西省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-07-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2010-07-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 9, 'job_name': '甘肃省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '辽宁省', 'job_name': '辽宁省纪律检查委员会书记'}</t>
+          <t>{'begin_time': Timestamp('2014-08-01 00:00:00'), 'end_time': Timestamp('2016-03-01 00:00:00'), 'location': '辽宁省', 'type': '党委', 'rank': 0, 'job_name': '辽宁省纪律检查委员会书记'}</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-04-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区政府/国务院（综合）常务副主席'}</t>
+          <t>{'begin_time': Timestamp('2014-04-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '广西壮族自治区', 'type': '政府/国务院', 'rank': 0, 'job_name': '广西壮族自治区政府/国务院（综合）常务副主席'}</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央组织部部长'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央组织部部长'}</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-07-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '中央', 'job_name': '中央交通部/厅/局部长、党组书记'}</t>
+          <t>{'begin_time': Timestamp('2012-07-01 00:00:00'), 'end_time': Timestamp('2016-09-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央交通部/厅/局部长、党组书记'}</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2010-01-01 00:00:00'), 'end_time': Timestamp('2018-02-01 00:00:00'), 'location': '中央', 'job_name': '中央妇女联合会党组书记、副主席、书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2010-01-01 00:00:00'), 'end_time': Timestamp('2018-02-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 9, 'job_name': '中央妇女联合会党组书记、副主席、书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '青海省', 'job_name': '青海省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '青海省', 'type': '党委', 'rank': 9, 'job_name': '青海省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '青海省', 'job_name': '青海省政府/国务院（综合）省长'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-12-01 00:00:00'), 'location': '青海省', 'type': '政府/国务院', 'rank': 9, 'job_name': '青海省政府/国务院（综合）省长'}</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区政府/国务院（综合）代主席、主席'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '政府/国务院', 'rank': 9, 'job_name': '宁夏回族自治区政府/国务院（综合）代主席、主席'}</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-04-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省政府/国务院（综合）常委副省长'}</t>
+          <t>{'begin_time': Timestamp('2012-04-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 0, 'job_name': '甘肃省政府/国务院（综合）常委副省长'}</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-04-02 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省甘肃省委党校院长'}</t>
+          <t>{'begin_time': Timestamp('2012-04-02 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'type': '学校', 'rank': 8, 'job_name': '甘肃省甘肃省委党校院长'}</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-11-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省卫生部/厅/局食品安全委员主任（兼）'}</t>
+          <t>{'begin_time': Timestamp('2013-11-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 8, 'job_name': '甘肃省卫生部/厅/局食品安全委员主任（兼）'}</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'job_name': '甘肃省教育部/厅/局招生委员会主任（兼）'}</t>
+          <t>{'begin_time': Timestamp('2014-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '甘肃省', 'type': '政府/国务院', 'rank': 8, 'job_name': '甘肃省教育部/厅/局招生委员会主任（兼）'}</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2018-10-01 00:00:00'), 'location': '中央', 'job_name': '中央发展改革/计划委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2018-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央发展改革/计划委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2018-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国家能源局局长（严重违纪）'}</t>
+          <t>{'begin_time': Timestamp('2014-12-01 00:00:00'), 'end_time': Timestamp('2018-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家能源局局长（严重违纪）'}</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '中央', 'job_name': '中央国家安全委员会副主任正部长级'}</t>
+          <t>{'begin_time': Timestamp('2014-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家安全委员会副主任正部长级'}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央社会和法制委员会副主任'}</t>
+          <t>{'begin_time': Timestamp('2011-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 9, 'job_name': '中央社会和法制委员会副主任'}</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员（严重违纪）'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员（严重违纪）'}</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局常委'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 11, 'job_name': '中央党委常委会/政治局政治局常委'}</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央纪律检查委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2014-07-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'job_name': '中央纪律检查委员会纪律检查体制改革专项小组组长'}</t>
+          <t>{'begin_time': Timestamp('2014-07-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央纪律检查委员会纪律检查体制改革专项小组组长'}</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '福建省', 'job_name': '福建省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '福建省', 'type': '党委', 'rank': 9, 'job_name': '福建省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '江西省', 'job_name': '江西省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2016-06-01 00:00:00'), 'location': '江西省', 'type': '党委', 'rank': 9, 'job_name': '江西省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-07-01 00:00:00'), 'location': '江西省', 'job_name': '江西省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-07-01 00:00:00'), 'location': '江西省', 'type': '人大', 'rank': 9, 'job_name': '江西省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央人大常委会副委员长'}</t>
+          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '人大', 'rank': 10, 'job_name': '中央人大常委会副委员长'}</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'job_name': '中央总工会主席'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-10-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 10, 'job_name': '中央总工会主席'}</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '山东省', 'type': '党委', 'rank': 9, 'job_name': '山东省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-02-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '山东省', 'job_name': '山东省人大常委会主任'}</t>
+          <t>{'begin_time': Timestamp('2009-02-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '山东省', 'type': '人大', 'rank': 9, 'job_name': '山东省人大常委会主任'}</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '中央', 'job_name': '中央国家审计署/地方审计厅/局审计长'}</t>
+          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2017-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国家审计署/地方审计厅/局审计长'}</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）副总理'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）副总理'}</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2007-10-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央宣传部部长'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央宣传部部长'}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央党委常委会/政治局政治局委员'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央党委常委会/政治局政治局委员'}</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政府/国务院（综合）国务委员'}</t>
+          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央政府/国务院（综合）国务委员'}</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央政法委员会副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央政法委员会副书记'}</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央公安部/厅/局部长、党委书记'}</t>
+          <t>{'begin_time': Timestamp('2013-06-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 10, 'job_name': '中央公安部/厅/局部长、党委书记'}</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '广西壮族自治区', 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-12-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '广西壮族自治区', 'type': '党委', 'rank': 9, 'job_name': '广西壮族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会副主席'}</t>
+          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 10, 'job_name': '中央政协常委会副主席'}</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'job_name': '中央书记处书记'}</t>
+          <t>{'begin_time': Timestamp('2012-06-01 00:00:00'), 'end_time': Timestamp('2017-11-01 00:00:00'), 'location': '中央', 'type': '党委', 'rank': 10, 'job_name': '中央书记处书记'}</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '四川省', 'job_name': '四川省党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2012-11-01 00:00:00'), 'end_time': Timestamp('2018-03-01 00:00:00'), 'location': '四川省', 'type': '党委', 'rank': 9, 'job_name': '四川省党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '西藏自治区', 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
+          <t>{'begin_time': Timestamp('2013-04-01 00:00:00'), 'end_time': Timestamp('2016-08-01 00:00:00'), 'location': '西藏自治区', 'type': '党委', 'rank': 8, 'job_name': '西藏自治区党委常委会/政治局常务副书记'}</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-01-01 00:00:00'), 'location': '中央', 'job_name': '中央国有资产监督管理委员会主任、党委书记'}</t>
+          <t>{'begin_time': Timestamp('2013-12-01 00:00:00'), 'end_time': Timestamp('2016-01-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 9, 'job_name': '中央国有资产监督管理委员会主任、党委书记'}</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '宁夏回族自治区', 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
+          <t>{'begin_time': Timestamp('2013-03-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '宁夏回族自治区', 'type': '党委', 'rank': 9, 'job_name': '宁夏回族自治区党委常委会/政治局书记'}</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'job_name': '中央政协常委会常委'}</t>
+          <t>{'begin_time': Timestamp('1995-03-01 00:00:00'), 'end_time': Timestamp('2021-03-03 00:00:00'), 'location': '中央', 'type': '政协', 'rank': 0, 'job_name': '中央政协常委会常委'}</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'job_name': '中央宋庆龄基金会主席'}</t>
+          <t>{'begin_time': Timestamp('2001-03-01 00:00:00'), 'end_time': Timestamp('2016-11-01 00:00:00'), 'location': '中央', 'type': '行业协会_人民团体', 'rank': 0, 'job_name': '中央宋庆龄基金会主席'}</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '中央', 'job_name': '中央环境保护部/厅/局副部长'}</t>
+          <t>{'begin_time': Timestamp('2008-03-01 00:00:00'), 'end_time': Timestamp('2016-10-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央环境保护部/厅/局副部长'}</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2009-04-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '中央', 'job_name': '中央国家防汛抗旱总指挥部秘书长'}</t>
+          <t>{'begin_time': Timestamp('2009-04-01 00:00:00'), 'end_time': Timestamp('2017-04-01 00:00:00'), 'location': '中央', 'type': '政府/国务院', 'rank': 0, 'job_name': '中央国家防汛抗旱总指挥部秘书长'}</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2017-05-01 00:00:00'), 'location': '中央', 'job_name': '中央中国兵器装备集团公司董事长'}</t>
+          <t>{'begin_time': Timestamp('2013-01-01 00:00:00'), 'end_time': Timestamp('2017-05-01 00:00:00'), 'location': '中央', 'type': '国有企业', 'rank': 0, 'job_name': '中央中国兵器装备集团公司董事长'}</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-05-01 00:00:00'), 'location': '浙江省宁波市', 'job_name': '浙江省宁波市政协常委会主席'}</t>
+          <t>{'begin_time': Timestamp('2011-02-01 00:00:00'), 'end_time': Timestamp('2016-05-01 00:00:00'), 'location': '浙江省宁波市', 'type': '政协', 'rank': 0, 'job_name': '浙江省宁波市政协常委会主席'}</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2011-12-01 00:00:00'), 'end_time': Timestamp('2016-04-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）党组副书记'}</t>
+          <t>{'begin_time': Timestamp('2011-12-01 00:00:00'), 'end_time': Timestamp('2016-04-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖北省政府/国务院（综合）党组副书记'}</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省政府/国务院（综合）副省长'}</t>
+          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '湖北省', 'type': '政府/国务院', 'rank': 0, 'job_name': '湖北省政府/国务院（综合）副省长'}</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '湖北省', 'job_name': '湖北省行政学院院长'}</t>
+          <t>{'begin_time': Timestamp('2012-01-01 00:00:00'), 'end_time': Timestamp('2017-01-01 00:00:00'), 'location': '湖北省', 'type': '学校', 'rank': 0, 'job_name': '湖北省行政学院院长'}</t>
         </is>
       </c>
     </row>
